--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44142.29887031178</v>
+        <v>8784317.475192044</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44142.29887031178</v>
+        <v>8784317.475192044</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62039.3595642891</v>
+        <v>5781732.444329117</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62039.3595642891</v>
+        <v>5781732.444329117</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495550836.320916</v>
+        <v>55277283.66041719</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15196.81411490878</v>
+        <v>1331390.348594667</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28776.98713251981</v>
+        <v>2416777.255806382</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42316.86145574682</v>
+        <v>3502164.163018098</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55967.32572867266</v>
+        <v>4555346.874395853</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69288.0869993143</v>
+        <v>5639532.776991365</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82608.84826995597</v>
+        <v>6723718.679586878</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95383.98283983169</v>
+        <v>7941141.275533031</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>108035.4196319297</v>
+        <v>9133948.013701404</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121365.9145540843</v>
+        <v>10161708.88003018</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>134849.7250317945</v>
+        <v>11219979.54191452</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>148333.5355095048</v>
+        <v>12278250.20379885</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161817.345987215</v>
+        <v>13336520.86568318</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>175301.1564649252</v>
+        <v>14394791.52756753</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188784.9925010717</v>
+        <v>15453062.18945188</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>202470.5374554658</v>
+        <v>16379007.20740324</v>
       </c>
     </row>
   </sheetData>
